--- a/MT9V024IA7XTM/РЕГИСТРЫ.xlsx
+++ b/MT9V024IA7XTM/РЕГИСТРЫ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VPL\LabView_PRJ\MT9V024IA7XTM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VPL\LabView_PRJ\MT9V024IA7XTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5670F0E8-3BF0-45BC-85FA-A53D3E42B82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E987FF-9C46-49C8-900A-D761509C7792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
   <si>
     <t>Регистр</t>
   </si>
@@ -132,18 +132,12 @@
     <t>Coarse Shutter Width Control</t>
   </si>
   <si>
-    <t>Coarse Shutter Width Total</t>
-  </si>
-  <si>
     <t>Fine Shutter Width 1</t>
   </si>
   <si>
     <t>Fine Shutter Width 2</t>
   </si>
   <si>
-    <t>Fine Shutter Width Total</t>
-  </si>
-  <si>
     <t>Read Mode</t>
   </si>
   <si>
@@ -280,6 +274,15 @@
   </si>
   <si>
     <t>230</t>
+  </si>
+  <si>
+    <t>Цветом выделил те регистры, которые необходимо поменять</t>
+  </si>
+  <si>
+    <t>Время интегрирования, строки</t>
+  </si>
+  <si>
+    <t>Время интегрирования, пиксели</t>
   </si>
 </sst>
 </file>
@@ -309,12 +312,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -329,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,27 +347,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -639,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,41 +671,49 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="H1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>66</v>
+      <c r="C2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ref="E2:E25" si="0">HEX2DEC(D2)</f>
@@ -697,18 +724,18 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
+      <c r="C3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="0"/>
@@ -719,18 +746,18 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>62</v>
+      <c r="C4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E4" s="2">
         <v>480</v>
@@ -740,18 +767,18 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>63</v>
+      <c r="C5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E5" s="2">
         <v>752</v>
@@ -761,18 +788,18 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>72</v>
+      <c r="C6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="E6" s="2">
         <v>23</v>
@@ -782,18 +809,18 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>70</v>
+      <c r="C7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E7" s="2">
         <v>20</v>
@@ -803,20 +830,20 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="2">
         <v>560</v>
       </c>
       <c r="F8" s="1"/>
@@ -824,139 +851,139 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="2" t="s">
-        <v>81</v>
+      <c r="B12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="2" t="s">
-        <v>81</v>
+      <c r="B15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -966,19 +993,19 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -988,16 +1015,16 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1005,16 +1032,16 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1022,16 +1049,16 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1039,16 +1066,16 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1056,16 +1083,16 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1073,16 +1100,16 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1090,17 +1117,17 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>66</v>
+      <c r="B24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
@@ -1112,16 +1139,16 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="2">
@@ -1130,17 +1157,17 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>57</v>
+      <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E26" s="2">
         <f>HEX2DEC(D26)</f>
@@ -1148,17 +1175,17 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>59</v>
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" ref="E27:E32" si="1">HEX2DEC(D27)</f>
@@ -1166,16 +1193,16 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="5">
         <v>3</v>
       </c>
       <c r="E28" s="2">
@@ -1184,16 +1211,16 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="5">
         <v>3</v>
       </c>
       <c r="E29" s="2">
@@ -1202,126 +1229,126 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>52</v>
+      <c r="A30" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="6">
+        <v>51</v>
+      </c>
+      <c r="E30" s="5">
         <f t="shared" si="1"/>
         <v>11566</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>60</v>
+      <c r="A32" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="9">
+        <v>59</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="5">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="A33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="5">
+      <c r="C33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="4">
         <v>0</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="2" t="s">
+      <c r="C35" s="7">
+        <v>4</v>
+      </c>
+      <c r="D35" s="8">
+        <v>4</v>
+      </c>
+      <c r="E35" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="4">
-        <v>4</v>
-      </c>
-      <c r="D35" s="5">
-        <v>4</v>
-      </c>
-      <c r="E35" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
@@ -1373,5 +1400,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>